--- a/xlsx/country_comparison/radical_redistr_few_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_share.xlsx
@@ -447,16 +447,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.69421692727724</v>
+        <v>0.694559704933149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718303145853194</v>
+        <v>0.718720602069614</v>
       </c>
       <c r="D2" t="n">
         <v>0.718390804597701</v>
       </c>
       <c r="E2" t="n">
-        <v>0.717777777777778</v>
+        <v>0.719148936170213</v>
       </c>
       <c r="F2" t="n">
         <v>0.837278106508876</v>
@@ -465,13 +465,13 @@
         <v>0.691428571428571</v>
       </c>
       <c r="H2" t="n">
-        <v>0.735632183908046</v>
+        <v>0.736641221374046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.66358024691358</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>0.608910891089109</v>
+        <v>0.605911330049261</v>
       </c>
       <c r="K2" t="n">
         <v>0.685575364667747</v>
@@ -480,7 +480,7 @@
         <v>0.816831683168317</v>
       </c>
       <c r="M2" t="n">
-        <v>0.59010989010989</v>
+        <v>0.614609571788413</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.627633512983831</v>
+        <v>0.631819219356311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.647172547124215</v>
+        <v>0.646605681271064</v>
       </c>
       <c r="D3" t="n">
         <v>0.698795180722891</v>
       </c>
       <c r="E3" t="n">
-        <v>0.635933806146572</v>
+        <v>0.633177570093458</v>
       </c>
       <c r="F3" t="n">
         <v>0.702786377708978</v>
@@ -509,7 +509,7 @@
         <v>0.663967611336032</v>
       </c>
       <c r="I3" t="n">
-        <v>0.672413793103448</v>
+        <v>0.672364672364672</v>
       </c>
       <c r="J3" t="n">
         <v>0.386934673366834</v>
@@ -521,7 +521,7 @@
         <v>0.826576576576577</v>
       </c>
       <c r="M3" t="n">
-        <v>0.539978094194962</v>
+        <v>0.577242524916944</v>
       </c>
     </row>
     <row r="4">
@@ -529,16 +529,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.723155334182787</v>
+        <v>0.715714746692481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.769537667214269</v>
+        <v>0.77048417132216</v>
       </c>
       <c r="D4" t="n">
         <v>0.768388106416275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.749712973593571</v>
+        <v>0.753623188405797</v>
       </c>
       <c r="F4" t="n">
         <v>0.87221396731055</v>
@@ -547,13 +547,13 @@
         <v>0.843956043956044</v>
       </c>
       <c r="H4" t="n">
-        <v>0.840909090909091</v>
+        <v>0.841209829867675</v>
       </c>
       <c r="I4" t="n">
-        <v>0.657018813314038</v>
+        <v>0.659025787965616</v>
       </c>
       <c r="J4" t="n">
-        <v>0.658415841584158</v>
+        <v>0.659259259259259</v>
       </c>
       <c r="K4" t="n">
         <v>0.701602959309494</v>
@@ -562,7 +562,7 @@
         <v>0.925619834710744</v>
       </c>
       <c r="M4" t="n">
-        <v>0.547556489753022</v>
+        <v>0.561611374407583</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.466227347611203</v>
+        <v>0.462857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.504675910996453</v>
+        <v>0.504637032299328</v>
       </c>
       <c r="D5" t="n">
         <v>0.440199335548173</v>
       </c>
       <c r="E5" t="n">
-        <v>0.446428571428572</v>
+        <v>0.443890274314214</v>
       </c>
       <c r="F5" t="n">
         <v>0.691419141914191</v>
@@ -589,13 +589,13 @@
         <v>0.51356993736952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.452380952380952</v>
+        <v>0.457680250783699</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.398290598290598</v>
+        <v>0.406005221932115</v>
       </c>
     </row>
     <row r="6">
@@ -603,16 +603,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.616664316932187</v>
+        <v>0.617043523722389</v>
       </c>
       <c r="C6" t="n">
-        <v>0.607122982749026</v>
+        <v>0.608011049723757</v>
       </c>
       <c r="D6" t="n">
         <v>0.436454849498328</v>
       </c>
       <c r="E6" t="n">
-        <v>0.622972972972973</v>
+        <v>0.626155878467635</v>
       </c>
       <c r="F6" t="n">
         <v>0.764591439688716</v>
@@ -621,13 +621,13 @@
         <v>0.62691131498471</v>
       </c>
       <c r="H6" t="n">
-        <v>0.716279069767442</v>
+        <v>0.71461716937355</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5796875</v>
+        <v>0.581143740340031</v>
       </c>
       <c r="J6" t="n">
-        <v>0.530434782608696</v>
+        <v>0.531791907514451</v>
       </c>
       <c r="K6" t="n">
         <v>0.585388127853881</v>
@@ -636,7 +636,7 @@
         <v>0.88296488946684</v>
       </c>
       <c r="M6" t="n">
-        <v>0.533333333333333</v>
+        <v>0.55376095985233</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_few_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_share.xlsx
@@ -447,40 +447,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.694559704933149</v>
+        <v>0.683286671200591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718720602069614</v>
+        <v>0.727267133682238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.718390804597701</v>
+        <v>0.713266166753258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.719148936170213</v>
+        <v>0.722752212925052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.837278106508876</v>
+        <v>0.839866307760825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.691428571428571</v>
+        <v>0.694516301386687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.736641221374046</v>
+        <v>0.727791884744065</v>
       </c>
       <c r="I2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.671225049697161</v>
       </c>
       <c r="J2" t="n">
-        <v>0.605911330049261</v>
+        <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.685575364667747</v>
+        <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
-        <v>0.816831683168317</v>
+        <v>0.817345461694808</v>
       </c>
       <c r="M2" t="n">
-        <v>0.614609571788413</v>
+        <v>0.622354397487081</v>
       </c>
     </row>
     <row r="3">
@@ -488,40 +488,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.631819219356311</v>
+        <v>0.623345952924007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.646605681271064</v>
+        <v>0.663594295554775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.698795180722891</v>
+        <v>0.698772999587592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.633177570093458</v>
+        <v>0.622101654744799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.702786377708978</v>
+        <v>0.706881256898736</v>
       </c>
       <c r="G3" t="n">
-        <v>0.690355329949239</v>
+        <v>0.699228862448248</v>
       </c>
       <c r="H3" t="n">
-        <v>0.663967611336032</v>
+        <v>0.658500586296013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.672364672364672</v>
+        <v>0.665804066558109</v>
       </c>
       <c r="J3" t="n">
-        <v>0.386934673366834</v>
+        <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.553353658536585</v>
+        <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.826576576576577</v>
+        <v>0.816920760799125</v>
       </c>
       <c r="M3" t="n">
-        <v>0.577242524916944</v>
+        <v>0.574114671968279</v>
       </c>
     </row>
     <row r="4">
@@ -529,40 +529,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.715714746692481</v>
+        <v>0.690994277929796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.77048417132216</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.768388106416275</v>
+        <v>0.761687470249255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.753623188405797</v>
+        <v>0.758489172765931</v>
       </c>
       <c r="F4" t="n">
-        <v>0.87221396731055</v>
+        <v>0.874100026122781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.843956043956044</v>
+        <v>0.843596425922759</v>
       </c>
       <c r="H4" t="n">
-        <v>0.841209829867675</v>
+        <v>0.842976707711552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.659025787965616</v>
+        <v>0.658792898536381</v>
       </c>
       <c r="J4" t="n">
-        <v>0.659259259259259</v>
+        <v>0.660378064524565</v>
       </c>
       <c r="K4" t="n">
-        <v>0.701602959309494</v>
+        <v>0.703723773724232</v>
       </c>
       <c r="L4" t="n">
-        <v>0.925619834710744</v>
+        <v>0.930231790695484</v>
       </c>
       <c r="M4" t="n">
-        <v>0.561611374407583</v>
+        <v>0.560975861057092</v>
       </c>
     </row>
     <row r="5">
@@ -570,32 +570,32 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.462857142857143</v>
+        <v>0.451745267822287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.504637032299328</v>
+        <v>0.502618407568093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.440199335548173</v>
+        <v>0.437375697519216</v>
       </c>
       <c r="E5" t="n">
-        <v>0.443890274314214</v>
+        <v>0.43866370099415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.691419141914191</v>
+        <v>0.696737544675098</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.51356993736952</v>
+        <v>0.507401270303301</v>
       </c>
       <c r="I5" t="n">
-        <v>0.457680250783699</v>
+        <v>0.458595587653966</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.406005221932115</v>
+        <v>0.401050394755232</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +603,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.617043523722389</v>
+        <v>0.595124310025602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.608011049723757</v>
+        <v>0.609896497471146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.436454849498328</v>
+        <v>0.432040689538255</v>
       </c>
       <c r="E6" t="n">
-        <v>0.626155878467635</v>
+        <v>0.620111679474376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.764591439688716</v>
+        <v>0.766975357539963</v>
       </c>
       <c r="G6" t="n">
-        <v>0.62691131498471</v>
+        <v>0.618309495622478</v>
       </c>
       <c r="H6" t="n">
-        <v>0.71461716937355</v>
+        <v>0.708786744917504</v>
       </c>
       <c r="I6" t="n">
-        <v>0.581143740340031</v>
+        <v>0.574354517212933</v>
       </c>
       <c r="J6" t="n">
-        <v>0.531791907514451</v>
+        <v>0.538340937683521</v>
       </c>
       <c r="K6" t="n">
-        <v>0.585388127853881</v>
+        <v>0.583970917094862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.88296488946684</v>
+        <v>0.888820570273345</v>
       </c>
       <c r="M6" t="n">
-        <v>0.55376095985233</v>
+        <v>0.554373497970374</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_few_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -441,13 +444,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.683286671200591</v>
+        <v>0.693901017452085</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -477,18 +483,21 @@
         <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
+        <v>0.75474525024331</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.622354397487081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.623345952924007</v>
+        <v>0.642239736998293</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -518,18 +527,21 @@
         <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
+        <v>0.766098373938282</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.574114671968279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.690994277929796</v>
+        <v>0.706072881772088</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
@@ -559,18 +571,21 @@
         <v>0.703723773724232</v>
       </c>
       <c r="L4" t="n">
+        <v>0.785034538455345</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.930231790695484</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.560975861057092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451745267822288</v>
       </c>
       <c r="C5" t="n">
         <v>0.502618407568093</v>
@@ -594,16 +609,17 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" t="n">
+      <c r="M5"/>
+      <c r="N5" t="n">
         <v>0.401050394755232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.595124310025602</v>
+        <v>0.592409982650417</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
@@ -633,9 +649,12 @@
         <v>0.583970917094862</v>
       </c>
       <c r="L6" t="n">
+        <v>0.575779296121639</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.888820570273345</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.554373497970374</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_few_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_share.xlsx
@@ -64,8 +64,8 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Supports reparations for colonization and slavery in
@@ -453,7 +453,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693901017452085</v>
+        <v>0.69404381490905</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -483,7 +483,7 @@
         <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
-        <v>0.75474525024331</v>
+        <v>0.755738250031341</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -497,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642239736998293</v>
+        <v>0.642677782115776</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -527,7 +527,7 @@
         <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.766098373938282</v>
+        <v>0.769229629394801</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.706072881772088</v>
+        <v>0.705883200070147</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
@@ -571,7 +571,7 @@
         <v>0.703723773724232</v>
       </c>
       <c r="L4" t="n">
-        <v>0.785034538455345</v>
+        <v>0.783687718511218</v>
       </c>
       <c r="M4" t="n">
         <v>0.930231790695484</v>
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451745267822288</v>
+        <v>0.451745267822287</v>
       </c>
       <c r="C5" t="n">
         <v>0.502618407568093</v>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592409982650417</v>
+        <v>0.592833289390146</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
@@ -649,7 +649,7 @@
         <v>0.583970917094862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.575779296121639</v>
+        <v>0.578703197664799</v>
       </c>
       <c r="M6" t="n">
         <v>0.888820570273345</v>

--- a/xlsx/country_comparison/radical_redistr_few_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_share.xlsx
@@ -453,7 +453,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.69404381490905</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -480,16 +480,16 @@
         <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.691563351816597</v>
+        <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.755738250031341</v>
+        <v>0.754855071318372</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
       <c r="N2" t="n">
-        <v>0.622354397487081</v>
+        <v>0.622335501686223</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642677782115776</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -524,16 +524,16 @@
         <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55047661217434</v>
+        <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.769229629394801</v>
+        <v>0.756622372880961</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.574114671968279</v>
+        <v>0.57421952327369</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.705883200070147</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
@@ -568,16 +568,16 @@
         <v>0.660378064524565</v>
       </c>
       <c r="K4" t="n">
-        <v>0.703723773724232</v>
+        <v>0.703727559204962</v>
       </c>
       <c r="L4" t="n">
-        <v>0.783687718511218</v>
+        <v>0.778963825426238</v>
       </c>
       <c r="M4" t="n">
         <v>0.930231790695484</v>
       </c>
       <c r="N4" t="n">
-        <v>0.560975861057092</v>
+        <v>0.561007628053552</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451810364536854</v>
       </c>
       <c r="C5" t="n">
         <v>0.502618407568093</v>
@@ -611,7 +611,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.401050394755232</v>
+        <v>0.401158464849325</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592833289390146</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
@@ -646,16 +646,16 @@
         <v>0.538340937683521</v>
       </c>
       <c r="K6" t="n">
-        <v>0.583970917094862</v>
+        <v>0.584137117430032</v>
       </c>
       <c r="L6" t="n">
-        <v>0.578703197664799</v>
+        <v>0.573182308826315</v>
       </c>
       <c r="M6" t="n">
         <v>0.888820570273345</v>
       </c>
       <c r="N6" t="n">
-        <v>0.554373497970374</v>
+        <v>0.554219568199052</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_few_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_share.xlsx
@@ -453,7 +453,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -483,7 +483,7 @@
         <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -497,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -527,7 +527,7 @@
         <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -541,43 +541,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.761687470249255</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.758489172765931</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.874100026122781</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G4" t="n">
-        <v>0.843596425922759</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H4" t="n">
-        <v>0.842976707711552</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I4" t="n">
-        <v>0.658792898536381</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.660378064524565</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K4" t="n">
-        <v>0.703727559204962</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M4" t="n">
-        <v>0.930231790695484</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N4" t="n">
-        <v>0.561007628053552</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="5">
@@ -591,27 +591,27 @@
         <v>0.502618407568093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.437375697519216</v>
+        <v>0.438407527923474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.43866370099415</v>
+        <v>0.439022530105316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.696737544675098</v>
+        <v>0.693097173376912</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.507401270303301</v>
+        <v>0.510821694970915</v>
       </c>
       <c r="I5" t="n">
-        <v>0.458595587653966</v>
+        <v>0.457151305629475</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.401158464849325</v>
+        <v>0.400676565778138</v>
       </c>
     </row>
     <row r="6">
@@ -619,43 +619,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.432040689538255</v>
+        <v>0.432966587857026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.620111679474376</v>
+        <v>0.623667021276442</v>
       </c>
       <c r="F6" t="n">
-        <v>0.766975357539963</v>
+        <v>0.765866950290479</v>
       </c>
       <c r="G6" t="n">
-        <v>0.618309495622478</v>
+        <v>0.633729019702456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.708786744917504</v>
+        <v>0.702512213956321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.574354517212933</v>
+        <v>0.575699232924345</v>
       </c>
       <c r="J6" t="n">
-        <v>0.538340937683521</v>
+        <v>0.53058178548063</v>
       </c>
       <c r="K6" t="n">
-        <v>0.584137117430032</v>
+        <v>0.586217425103406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.573182308826315</v>
+        <v>0.572781630922761</v>
       </c>
       <c r="M6" t="n">
-        <v>0.888820570273345</v>
+        <v>0.887006592651732</v>
       </c>
       <c r="N6" t="n">
-        <v>0.554219568199052</v>
+        <v>0.554098197443099</v>
       </c>
     </row>
   </sheetData>
